--- a/7_Report/SAMPLE_WBS.xlsx
+++ b/7_Report/SAMPLE_WBS.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -360,7 +360,7 @@
     <t>Xuất thống kê tháng</t>
   </si>
   <si>
-    <t>xong</t>
+    <t>8./2/2018</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
     <numFmt numFmtId="169" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="170" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -491,11 +491,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1490,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1965,13 +1960,175 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1981,271 +2138,111 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2254,12 +2251,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2271,7 +2262,532 @@
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="193">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3125,69 +3641,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3597,7 +4050,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3639,7 +4092,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3666,7 +4119,7 @@
       <pane xSplit="18" ySplit="10" topLeftCell="Y11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19:J20"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -3794,20 +4247,20 @@
       <c r="K2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="188" t="s">
+      <c r="L2" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="189"/>
-      <c r="N2" s="188" t="s">
+      <c r="M2" s="200"/>
+      <c r="N2" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="189"/>
+      <c r="O2" s="200"/>
       <c r="P2" s="116"/>
-      <c r="Q2" s="184">
+      <c r="Q2" s="218">
         <f ca="1">TODAY()</f>
-        <v>43298</v>
-      </c>
-      <c r="R2" s="185"/>
+        <v>43315</v>
+      </c>
+      <c r="R2" s="219"/>
       <c r="S2" s="34"/>
       <c r="T2" s="68"/>
       <c r="U2" s="29"/>
@@ -3867,76 +4320,76 @@
       <c r="BW2" s="37"/>
       <c r="BX2" s="37"/>
       <c r="BY2" s="37"/>
-      <c r="BZ2" s="172">
+      <c r="BZ2" s="215">
         <v>0.05</v>
       </c>
-      <c r="CA2" s="173"/>
-      <c r="CB2" s="173"/>
-      <c r="CC2" s="172">
+      <c r="CA2" s="216"/>
+      <c r="CB2" s="216"/>
+      <c r="CC2" s="215">
         <v>0.05</v>
       </c>
-      <c r="CD2" s="173"/>
-      <c r="CE2" s="173"/>
-      <c r="CF2" s="174">
+      <c r="CD2" s="216"/>
+      <c r="CE2" s="216"/>
+      <c r="CF2" s="141">
         <v>0.1</v>
       </c>
-      <c r="CG2" s="175"/>
-      <c r="CH2" s="176"/>
-      <c r="CI2" s="174">
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="143"/>
+      <c r="CI2" s="141">
         <v>0.1</v>
       </c>
-      <c r="CJ2" s="175"/>
-      <c r="CK2" s="176"/>
-      <c r="CL2" s="174">
+      <c r="CJ2" s="142"/>
+      <c r="CK2" s="143"/>
+      <c r="CL2" s="141">
         <v>0.1</v>
       </c>
-      <c r="CM2" s="175"/>
-      <c r="CN2" s="176"/>
-      <c r="CO2" s="174">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="143"/>
+      <c r="CO2" s="141">
         <v>0.05</v>
       </c>
-      <c r="CP2" s="175"/>
-      <c r="CQ2" s="176"/>
-      <c r="CR2" s="174">
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="143"/>
+      <c r="CR2" s="141">
         <v>0.05</v>
       </c>
-      <c r="CS2" s="175"/>
-      <c r="CT2" s="176"/>
-      <c r="CU2" s="174">
+      <c r="CS2" s="142"/>
+      <c r="CT2" s="143"/>
+      <c r="CU2" s="141">
         <v>0.1</v>
       </c>
-      <c r="CV2" s="175"/>
-      <c r="CW2" s="176"/>
-      <c r="CX2" s="174">
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="143"/>
+      <c r="CX2" s="141">
         <v>0.05</v>
       </c>
-      <c r="CY2" s="175"/>
-      <c r="CZ2" s="176"/>
-      <c r="DA2" s="174">
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DA2" s="141">
         <v>0.05</v>
       </c>
-      <c r="DB2" s="175"/>
-      <c r="DC2" s="176"/>
-      <c r="DD2" s="174">
+      <c r="DB2" s="142"/>
+      <c r="DC2" s="143"/>
+      <c r="DD2" s="141">
         <v>0.05</v>
       </c>
-      <c r="DE2" s="175"/>
-      <c r="DF2" s="176"/>
-      <c r="DG2" s="174">
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="143"/>
+      <c r="DG2" s="141">
         <v>0.1</v>
       </c>
-      <c r="DH2" s="175"/>
-      <c r="DI2" s="176"/>
-      <c r="DJ2" s="174">
+      <c r="DH2" s="142"/>
+      <c r="DI2" s="143"/>
+      <c r="DJ2" s="141">
         <v>0.05</v>
       </c>
-      <c r="DK2" s="175"/>
-      <c r="DL2" s="176"/>
-      <c r="DM2" s="174">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="143"/>
+      <c r="DM2" s="141">
         <v>0.05</v>
       </c>
-      <c r="DN2" s="175"/>
-      <c r="DO2" s="176"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="143"/>
       <c r="DP2" s="39"/>
       <c r="DQ2" s="39"/>
       <c r="DR2" s="39"/>
@@ -3961,7 +4414,7 @@
       <c r="EK2" s="39"/>
       <c r="EL2" s="15" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/17</v>
+        <v>Date： 2018/08/03</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
@@ -3987,19 +4440,19 @@
         <f>COUNTIF(R11:R12,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="190">
+      <c r="L3" s="201">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="191"/>
-      <c r="N3" s="190">
+      <c r="M3" s="202"/>
+      <c r="N3" s="201">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="191"/>
+      <c r="O3" s="202"/>
       <c r="P3" s="131"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
       <c r="S3" s="34"/>
       <c r="T3" s="69"/>
       <c r="U3" s="105"/>
@@ -4059,76 +4512,76 @@
       <c r="BW3" s="37"/>
       <c r="BX3" s="37"/>
       <c r="BY3" s="37"/>
-      <c r="BZ3" s="178" t="s">
+      <c r="BZ3" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="CA3" s="179"/>
-      <c r="CB3" s="180"/>
-      <c r="CC3" s="177" t="s">
+      <c r="CA3" s="148"/>
+      <c r="CB3" s="149"/>
+      <c r="CC3" s="217" t="s">
         <v>47</v>
       </c>
-      <c r="CD3" s="177"/>
-      <c r="CE3" s="177"/>
-      <c r="CF3" s="181" t="s">
+      <c r="CD3" s="217"/>
+      <c r="CE3" s="217"/>
+      <c r="CF3" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="CG3" s="182"/>
-      <c r="CH3" s="183"/>
-      <c r="CI3" s="181" t="s">
+      <c r="CG3" s="145"/>
+      <c r="CH3" s="146"/>
+      <c r="CI3" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="CJ3" s="182"/>
-      <c r="CK3" s="183"/>
-      <c r="CL3" s="181" t="s">
+      <c r="CJ3" s="145"/>
+      <c r="CK3" s="146"/>
+      <c r="CL3" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="CM3" s="182"/>
-      <c r="CN3" s="183"/>
-      <c r="CO3" s="181" t="s">
+      <c r="CM3" s="145"/>
+      <c r="CN3" s="146"/>
+      <c r="CO3" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="CP3" s="182"/>
-      <c r="CQ3" s="183"/>
-      <c r="CR3" s="181" t="s">
+      <c r="CP3" s="145"/>
+      <c r="CQ3" s="146"/>
+      <c r="CR3" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="CS3" s="182"/>
-      <c r="CT3" s="183"/>
-      <c r="CU3" s="181" t="s">
+      <c r="CS3" s="145"/>
+      <c r="CT3" s="146"/>
+      <c r="CU3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="CV3" s="182"/>
-      <c r="CW3" s="183"/>
-      <c r="CX3" s="181" t="s">
+      <c r="CV3" s="145"/>
+      <c r="CW3" s="146"/>
+      <c r="CX3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="CY3" s="182"/>
-      <c r="CZ3" s="183"/>
-      <c r="DA3" s="181" t="s">
+      <c r="CY3" s="145"/>
+      <c r="CZ3" s="146"/>
+      <c r="DA3" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="DB3" s="182"/>
-      <c r="DC3" s="183"/>
-      <c r="DD3" s="181" t="s">
+      <c r="DB3" s="145"/>
+      <c r="DC3" s="146"/>
+      <c r="DD3" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="DE3" s="182"/>
-      <c r="DF3" s="183"/>
-      <c r="DG3" s="181" t="s">
+      <c r="DE3" s="145"/>
+      <c r="DF3" s="146"/>
+      <c r="DG3" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="DH3" s="182"/>
-      <c r="DI3" s="183"/>
-      <c r="DJ3" s="178" t="s">
+      <c r="DH3" s="145"/>
+      <c r="DI3" s="146"/>
+      <c r="DJ3" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="DK3" s="179"/>
-      <c r="DL3" s="180"/>
-      <c r="DM3" s="181" t="s">
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="149"/>
+      <c r="DM3" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="DN3" s="182"/>
-      <c r="DO3" s="183"/>
+      <c r="DN3" s="145"/>
+      <c r="DO3" s="146"/>
       <c r="EL3" s="30">
         <f>B2</f>
         <v>0</v>
@@ -4312,16 +4765,16 @@
       <c r="E7" s="128"/>
       <c r="F7" s="122"/>
       <c r="G7" s="106"/>
-      <c r="H7" s="199" t="s">
+      <c r="H7" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="201"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="212"/>
       <c r="P7" s="122"/>
       <c r="Q7" s="133"/>
       <c r="R7" s="133"/>
@@ -4349,16 +4802,16 @@
         <f>IF(MAX(K11:K12)=DATE(1900,1,0),"",MAX(K11:K12))</f>
         <v>43284</v>
       </c>
-      <c r="L8" s="170">
+      <c r="L8" s="213">
         <f>SUM(M11:M86)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="171"/>
-      <c r="N8" s="170">
+      <c r="M8" s="214"/>
+      <c r="N8" s="213">
         <f>SUM(O11:O86)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="171"/>
+      <c r="O8" s="214"/>
       <c r="P8" s="121"/>
       <c r="Q8" s="134"/>
       <c r="R8" s="135" t="str">
@@ -4704,52 +5157,52 @@
       <c r="EI8" s="86"/>
       <c r="EJ8" s="86"/>
       <c r="EK8" s="86"/>
-      <c r="EL8" s="169" t="s">
+      <c r="EL8" s="221" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="202" t="s">
+      <c r="C9" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="207" t="s">
+      <c r="D9" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="209" t="s">
+      <c r="E9" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="213" t="s">
+      <c r="G9" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="204" t="s">
+      <c r="H9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="205"/>
-      <c r="J9" s="211" t="s">
+      <c r="I9" s="189"/>
+      <c r="J9" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="212"/>
-      <c r="L9" s="192" t="s">
+      <c r="K9" s="197"/>
+      <c r="L9" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="193"/>
-      <c r="N9" s="198" t="s">
+      <c r="M9" s="204"/>
+      <c r="N9" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="193"/>
-      <c r="P9" s="143" t="s">
+      <c r="O9" s="204"/>
+      <c r="P9" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="194" t="s">
+      <c r="Q9" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="195"/>
+      <c r="R9" s="206"/>
       <c r="S9" s="28">
         <v>43282</v>
       </c>
@@ -5241,15 +5694,15 @@
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="EL9" s="169"/>
+      <c r="EL9" s="221"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="213"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="198"/>
       <c r="H10" s="110" t="s">
         <v>20</v>
       </c>
@@ -5274,9 +5727,9 @@
       <c r="O10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="197"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="207"/>
+      <c r="R10" s="208"/>
       <c r="S10" s="22">
         <f>S9</f>
         <v>43282</v>
@@ -5607,42 +6060,38 @@
       <c r="EI10" s="87"/>
       <c r="EJ10" s="87"/>
       <c r="EK10" s="87"/>
-      <c r="EL10" s="169"/>
+      <c r="EL10" s="221"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="206"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147">
+      <c r="C11" s="171"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163">
         <v>43282</v>
       </c>
-      <c r="I11" s="147">
+      <c r="I11" s="163">
         <v>43283</v>
       </c>
-      <c r="J11" s="159">
+      <c r="J11" s="165">
         <v>43282</v>
       </c>
-      <c r="K11" s="159">
+      <c r="K11" s="165">
         <v>43284</v>
       </c>
-      <c r="L11" s="149"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="141" t="s">
+      <c r="L11" s="159"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="165">
-        <v>5</v>
-      </c>
-      <c r="R11" s="167">
-        <v>5</v>
-      </c>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="182"/>
       <c r="S11" s="82"/>
       <c r="T11" s="85"/>
       <c r="U11" s="84"/>
@@ -5769,23 +6218,23 @@
       <c r="EL11" s="93"/>
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
-      <c r="B12" s="218"/>
-      <c r="C12" s="206"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="168"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="183"/>
       <c r="S12" s="82"/>
       <c r="T12" s="83"/>
       <c r="U12" s="83"/>
@@ -5912,37 +6361,37 @@
       <c r="EL12" s="94"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="224" t="s">
+      <c r="B13" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147">
+      <c r="D13" s="155"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163">
         <v>43283</v>
       </c>
-      <c r="I13" s="147">
+      <c r="I13" s="163">
         <v>43284</v>
       </c>
-      <c r="J13" s="159">
+      <c r="J13" s="165">
         <v>43277</v>
       </c>
-      <c r="K13" s="159">
+      <c r="K13" s="165">
         <v>43280</v>
       </c>
-      <c r="L13" s="149"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="141" t="s">
+      <c r="L13" s="159"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="155"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="176"/>
       <c r="S13" s="82"/>
       <c r="T13" s="85"/>
       <c r="U13" s="84"/>
@@ -6069,23 +6518,23 @@
       <c r="EL13" s="93"/>
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
-      <c r="B14" s="225"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="156"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="179"/>
+      <c r="R14" s="177"/>
       <c r="S14" s="82"/>
       <c r="T14" s="83"/>
       <c r="U14" s="83"/>
@@ -6212,39 +6661,39 @@
       <c r="EL14" s="94"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="216"/>
-      <c r="C15" s="206" t="s">
+      <c r="B15" s="150"/>
+      <c r="C15" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="163" t="s">
+      <c r="D15" s="155"/>
+      <c r="E15" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147">
+      <c r="G15" s="163"/>
+      <c r="H15" s="163">
         <v>43284</v>
       </c>
-      <c r="I15" s="147">
+      <c r="I15" s="163">
         <v>43285</v>
       </c>
-      <c r="J15" s="147">
+      <c r="J15" s="163">
         <v>43284</v>
       </c>
-      <c r="K15" s="147">
+      <c r="K15" s="163">
         <v>43286</v>
       </c>
-      <c r="L15" s="149"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="141" t="s">
+      <c r="L15" s="159"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="155"/>
+      <c r="Q15" s="178"/>
+      <c r="R15" s="176"/>
       <c r="S15" s="82"/>
       <c r="T15" s="85"/>
       <c r="U15" s="84"/>
@@ -6371,23 +6820,23 @@
       <c r="EL15" s="93"/>
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
-      <c r="B16" s="214"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="156"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="179"/>
+      <c r="R16" s="177"/>
       <c r="S16" s="82"/>
       <c r="T16" s="83"/>
       <c r="U16" s="83"/>
@@ -6514,35 +6963,35 @@
       <c r="EL16" s="94"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="216"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="141" t="s">
+      <c r="B17" s="150"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147">
+      <c r="G17" s="163"/>
+      <c r="H17" s="163">
         <v>43284</v>
       </c>
-      <c r="I17" s="147">
+      <c r="I17" s="163">
         <v>43285</v>
       </c>
-      <c r="J17" s="147">
+      <c r="J17" s="163">
         <v>43284</v>
       </c>
-      <c r="K17" s="147">
+      <c r="K17" s="163">
         <v>43286</v>
       </c>
-      <c r="L17" s="149"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="141" t="s">
+      <c r="L17" s="159"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="155"/>
+      <c r="Q17" s="178"/>
+      <c r="R17" s="176"/>
       <c r="S17" s="82"/>
       <c r="T17" s="85"/>
       <c r="U17" s="84"/>
@@ -6669,23 +7118,23 @@
       <c r="EL17" s="93"/>
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
-      <c r="B18" s="214"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="156"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="177"/>
       <c r="S18" s="82"/>
       <c r="T18" s="83"/>
       <c r="U18" s="83"/>
@@ -6812,45 +7261,41 @@
       <c r="EL18" s="94"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="217" t="s">
+      <c r="B19" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="206" t="s">
+      <c r="C19" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="163" t="s">
+      <c r="D19" s="155"/>
+      <c r="E19" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="141" t="s">
+      <c r="F19" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147">
+      <c r="G19" s="163"/>
+      <c r="H19" s="163">
+        <v>43313</v>
+      </c>
+      <c r="I19" s="163">
+        <v>43314</v>
+      </c>
+      <c r="J19" s="163">
         <v>43286</v>
       </c>
-      <c r="I19" s="147">
-        <v>43287</v>
-      </c>
-      <c r="J19" s="147">
+      <c r="K19" s="163">
         <v>43286</v>
       </c>
-      <c r="K19" s="147">
-        <v>43286</v>
-      </c>
-      <c r="L19" s="149"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="141" t="s">
+      <c r="L19" s="159"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="165">
-        <v>5</v>
-      </c>
-      <c r="R19" s="167">
-        <v>5</v>
-      </c>
+      <c r="Q19" s="180"/>
+      <c r="R19" s="182"/>
       <c r="S19" s="82"/>
       <c r="T19" s="85"/>
       <c r="U19" s="84"/>
@@ -6977,23 +7422,23 @@
       <c r="EL19" s="93"/>
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
-      <c r="B20" s="218"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="168"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="183"/>
       <c r="S20" s="82"/>
       <c r="T20" s="83"/>
       <c r="U20" s="83"/>
@@ -7120,33 +7565,35 @@
       <c r="EL20" s="94"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="216"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="141" t="s">
+      <c r="B21" s="150"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147">
-        <v>43287</v>
-      </c>
-      <c r="I21" s="147">
-        <v>43288</v>
-      </c>
-      <c r="J21" s="147">
+      <c r="G21" s="163"/>
+      <c r="H21" s="163">
+        <v>43313</v>
+      </c>
+      <c r="I21" s="163">
+        <v>43313</v>
+      </c>
+      <c r="J21" s="163">
         <v>43286</v>
       </c>
-      <c r="K21" s="147">
+      <c r="K21" s="163">
         <v>43286</v>
       </c>
-      <c r="L21" s="149"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="155"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="176"/>
       <c r="S21" s="82"/>
       <c r="T21" s="85"/>
       <c r="U21" s="84"/>
@@ -7273,23 +7720,23 @@
       <c r="EL21" s="93"/>
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
-      <c r="B22" s="214"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="156"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="179"/>
+      <c r="R22" s="177"/>
       <c r="S22" s="82"/>
       <c r="T22" s="83"/>
       <c r="U22" s="83"/>
@@ -7416,33 +7863,35 @@
       <c r="EL22" s="94"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="216"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="141" t="s">
+      <c r="B23" s="150"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147">
-        <v>43289</v>
-      </c>
-      <c r="I23" s="147">
-        <v>43290</v>
-      </c>
-      <c r="J23" s="147">
+      <c r="G23" s="163"/>
+      <c r="H23" s="163">
+        <v>43313</v>
+      </c>
+      <c r="I23" s="163">
+        <v>43313</v>
+      </c>
+      <c r="J23" s="163">
         <v>43286</v>
       </c>
-      <c r="K23" s="147">
+      <c r="K23" s="163">
         <v>43286</v>
       </c>
-      <c r="L23" s="149"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="149"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="155"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="176"/>
       <c r="S23" s="82"/>
       <c r="T23" s="85"/>
       <c r="U23" s="84"/>
@@ -7569,23 +8018,23 @@
       <c r="EL23" s="93"/>
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
-      <c r="B24" s="214"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="156"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="179"/>
+      <c r="R24" s="177"/>
       <c r="S24" s="82"/>
       <c r="T24" s="83"/>
       <c r="U24" s="83"/>
@@ -7712,33 +8161,35 @@
       <c r="EL24" s="94"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="216"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="141" t="s">
+      <c r="B25" s="150"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147">
-        <v>43289</v>
-      </c>
-      <c r="I25" s="147">
-        <v>43290</v>
-      </c>
-      <c r="J25" s="147">
+      <c r="G25" s="163"/>
+      <c r="H25" s="163">
+        <v>43313</v>
+      </c>
+      <c r="I25" s="163">
+        <v>43313</v>
+      </c>
+      <c r="J25" s="163">
         <v>43286</v>
       </c>
-      <c r="K25" s="147">
+      <c r="K25" s="163">
         <v>43286</v>
       </c>
-      <c r="L25" s="149"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="149"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="155"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="176"/>
       <c r="S25" s="82"/>
       <c r="T25" s="85"/>
       <c r="U25" s="84"/>
@@ -7865,23 +8316,23 @@
       <c r="EL25" s="93"/>
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
-      <c r="B26" s="214"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="156"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="179"/>
+      <c r="R26" s="177"/>
       <c r="S26" s="82"/>
       <c r="T26" s="83"/>
       <c r="U26" s="83"/>
@@ -8008,33 +8459,35 @@
       <c r="EL26" s="94"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="216"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="141" t="s">
+      <c r="B27" s="150"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147">
-        <v>43289</v>
-      </c>
-      <c r="I27" s="147">
-        <v>43291</v>
-      </c>
-      <c r="J27" s="147">
+      <c r="G27" s="163"/>
+      <c r="H27" s="163">
+        <v>43313</v>
+      </c>
+      <c r="I27" s="163">
+        <v>43313</v>
+      </c>
+      <c r="J27" s="163">
         <v>43286</v>
       </c>
-      <c r="K27" s="147">
+      <c r="K27" s="163">
         <v>43286</v>
       </c>
-      <c r="L27" s="149"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="149"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="155"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="176"/>
       <c r="S27" s="82"/>
       <c r="T27" s="85"/>
       <c r="U27" s="84"/>
@@ -8161,23 +8614,23 @@
       <c r="EL27" s="93"/>
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
-      <c r="B28" s="214"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="156"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="179"/>
+      <c r="R28" s="177"/>
       <c r="S28" s="82"/>
       <c r="T28" s="83"/>
       <c r="U28" s="83"/>
@@ -8304,35 +8757,37 @@
       <c r="EL28" s="94"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="216"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="163" t="s">
+      <c r="B29" s="150"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="141" t="s">
+      <c r="F29" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147">
-        <v>43293</v>
-      </c>
-      <c r="I29" s="147">
-        <v>43296</v>
-      </c>
-      <c r="J29" s="147">
+      <c r="G29" s="163"/>
+      <c r="H29" s="163">
+        <v>43310</v>
+      </c>
+      <c r="I29" s="163">
+        <v>43311</v>
+      </c>
+      <c r="J29" s="163">
         <v>43286</v>
       </c>
-      <c r="K29" s="147">
+      <c r="K29" s="163">
         <v>43286</v>
       </c>
-      <c r="L29" s="149"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="155"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" s="178"/>
+      <c r="R29" s="176"/>
       <c r="S29" s="82"/>
       <c r="T29" s="85"/>
       <c r="U29" s="84"/>
@@ -8459,23 +8914,23 @@
       <c r="EL29" s="93"/>
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
-      <c r="B30" s="214"/>
-      <c r="C30" s="215"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="156"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="179"/>
+      <c r="R30" s="177"/>
       <c r="S30" s="82"/>
       <c r="T30" s="83"/>
       <c r="U30" s="83"/>
@@ -8602,33 +9057,35 @@
       <c r="EL30" s="94"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="216"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="141" t="s">
+      <c r="B31" s="150"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147">
-        <v>43293</v>
-      </c>
-      <c r="I31" s="147">
-        <v>43296</v>
-      </c>
-      <c r="J31" s="147">
+      <c r="G31" s="163"/>
+      <c r="H31" s="163">
+        <v>43310</v>
+      </c>
+      <c r="I31" s="163">
+        <v>43312</v>
+      </c>
+      <c r="J31" s="163">
         <v>43286</v>
       </c>
-      <c r="K31" s="147">
+      <c r="K31" s="163">
         <v>43286</v>
       </c>
-      <c r="L31" s="149"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="155"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" s="178"/>
+      <c r="R31" s="176"/>
       <c r="S31" s="82"/>
       <c r="T31" s="85"/>
       <c r="U31" s="84"/>
@@ -8755,23 +9212,23 @@
       <c r="EL31" s="93"/>
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
-      <c r="B32" s="214"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="156"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="185"/>
+      <c r="Q32" s="179"/>
+      <c r="R32" s="177"/>
       <c r="S32" s="82"/>
       <c r="T32" s="83"/>
       <c r="U32" s="83"/>
@@ -8898,33 +9355,35 @@
       <c r="EL32" s="94"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="216"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="141" t="s">
+      <c r="B33" s="150"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147">
-        <v>43293</v>
-      </c>
-      <c r="I33" s="147">
+      <c r="G33" s="163"/>
+      <c r="H33" s="163">
         <v>43296</v>
       </c>
-      <c r="J33" s="147">
+      <c r="I33" s="163">
+        <v>43298</v>
+      </c>
+      <c r="J33" s="163">
         <v>43286</v>
       </c>
-      <c r="K33" s="147">
+      <c r="K33" s="163">
         <v>43286</v>
       </c>
-      <c r="L33" s="149"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="155"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="178"/>
+      <c r="R33" s="176"/>
       <c r="S33" s="82"/>
       <c r="T33" s="85"/>
       <c r="U33" s="84"/>
@@ -9051,23 +9510,23 @@
       <c r="EL33" s="93"/>
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="156"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="185"/>
+      <c r="Q34" s="179"/>
+      <c r="R34" s="177"/>
       <c r="S34" s="82"/>
       <c r="T34" s="83"/>
       <c r="U34" s="83"/>
@@ -9194,33 +9653,35 @@
       <c r="EL34" s="94"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="216"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="141" t="s">
+      <c r="B35" s="150"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147">
-        <v>43293</v>
-      </c>
-      <c r="I35" s="147">
-        <v>43296</v>
-      </c>
-      <c r="J35" s="147">
+      <c r="G35" s="163"/>
+      <c r="H35" s="163">
+        <v>43313</v>
+      </c>
+      <c r="I35" s="163" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="163">
         <v>43287</v>
       </c>
-      <c r="K35" s="147">
+      <c r="K35" s="163">
         <v>43287</v>
       </c>
-      <c r="L35" s="149"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="155"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q35" s="178"/>
+      <c r="R35" s="176"/>
       <c r="S35" s="82"/>
       <c r="T35" s="85"/>
       <c r="U35" s="84"/>
@@ -9347,23 +9808,23 @@
       <c r="EL35" s="93"/>
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
-      <c r="B36" s="214"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="142"/>
-      <c r="Q36" s="162"/>
-      <c r="R36" s="156"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="177"/>
       <c r="S36" s="82"/>
       <c r="T36" s="83"/>
       <c r="U36" s="83"/>
@@ -9490,33 +9951,35 @@
       <c r="EL36" s="94"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="216"/>
-      <c r="C37" s="215"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="141" t="s">
+      <c r="B37" s="150"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147">
+      <c r="G37" s="163"/>
+      <c r="H37" s="163">
         <v>43296</v>
       </c>
-      <c r="I37" s="147">
+      <c r="I37" s="163">
         <v>43296</v>
       </c>
-      <c r="J37" s="147">
+      <c r="J37" s="163">
         <v>43287</v>
       </c>
-      <c r="K37" s="147">
+      <c r="K37" s="163">
         <v>43287</v>
       </c>
-      <c r="L37" s="149"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="187"/>
-      <c r="Q37" s="161"/>
-      <c r="R37" s="155"/>
+      <c r="L37" s="159"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="176"/>
       <c r="S37" s="82"/>
       <c r="T37" s="85"/>
       <c r="U37" s="84"/>
@@ -9643,23 +10106,23 @@
       <c r="EL37" s="93"/>
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
-      <c r="B38" s="214"/>
-      <c r="C38" s="215"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="152"/>
-      <c r="N38" s="150"/>
-      <c r="O38" s="152"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="162"/>
-      <c r="R38" s="156"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="177"/>
       <c r="S38" s="82"/>
       <c r="T38" s="83"/>
       <c r="U38" s="83"/>
@@ -9786,43 +10249,39 @@
       <c r="EL38" s="94"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="217" t="s">
+      <c r="B39" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="220" t="s">
+      <c r="C39" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="153"/>
-      <c r="E39" s="163" t="s">
+      <c r="D39" s="155"/>
+      <c r="E39" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="145"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147">
+      <c r="F39" s="157"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163">
         <v>43288</v>
       </c>
-      <c r="I39" s="147">
+      <c r="I39" s="163">
         <v>43289</v>
       </c>
-      <c r="J39" s="147">
+      <c r="J39" s="163">
         <v>43288</v>
       </c>
-      <c r="K39" s="147">
+      <c r="K39" s="163">
         <v>43290</v>
       </c>
-      <c r="L39" s="149"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q39" s="165">
-        <v>10</v>
-      </c>
-      <c r="R39" s="167">
-        <v>10</v>
-      </c>
+      <c r="L39" s="159"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="182"/>
       <c r="S39" s="82"/>
       <c r="T39" s="85"/>
       <c r="U39" s="84"/>
@@ -9949,23 +10408,23 @@
       <c r="EL39" s="93"/>
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
-      <c r="B40" s="218"/>
-      <c r="C40" s="220"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="152"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="168"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="164"/>
+      <c r="L40" s="160"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="183"/>
       <c r="S40" s="82"/>
       <c r="T40" s="83"/>
       <c r="U40" s="83"/>
@@ -10092,35 +10551,35 @@
       <c r="EL40" s="94"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="216"/>
-      <c r="C41" s="215"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="163" t="s">
+      <c r="B41" s="150"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="145"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147">
+      <c r="F41" s="157"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163">
         <v>43291</v>
       </c>
-      <c r="I41" s="147">
+      <c r="I41" s="163">
         <v>43291</v>
       </c>
-      <c r="J41" s="147">
+      <c r="J41" s="163">
         <v>43293</v>
       </c>
-      <c r="K41" s="147">
+      <c r="K41" s="163">
         <v>43293</v>
       </c>
-      <c r="L41" s="149"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q41" s="161"/>
-      <c r="R41" s="155"/>
+      <c r="L41" s="159"/>
+      <c r="M41" s="161"/>
+      <c r="N41" s="159"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" s="178"/>
+      <c r="R41" s="176"/>
       <c r="S41" s="82"/>
       <c r="T41" s="85"/>
       <c r="U41" s="84"/>
@@ -10247,23 +10706,23 @@
       <c r="EL41" s="93"/>
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
-      <c r="B42" s="214"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="152"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="162"/>
-      <c r="R42" s="156"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="162"/>
+      <c r="P42" s="185"/>
+      <c r="Q42" s="179"/>
+      <c r="R42" s="177"/>
       <c r="S42" s="82"/>
       <c r="T42" s="83"/>
       <c r="U42" s="83"/>
@@ -10390,37 +10849,35 @@
       <c r="EL42" s="94"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="216"/>
-      <c r="C43" s="220" t="s">
+      <c r="B43" s="150"/>
+      <c r="C43" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="153"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147">
+      <c r="D43" s="155"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163">
         <v>43291</v>
       </c>
-      <c r="I43" s="147">
+      <c r="I43" s="163">
         <v>43294</v>
       </c>
-      <c r="J43" s="147">
+      <c r="J43" s="163">
         <v>43294</v>
       </c>
-      <c r="K43" s="147">
+      <c r="K43" s="163">
         <v>43295</v>
       </c>
-      <c r="L43" s="149"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="149"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="145"/>
-      <c r="Q43" s="165">
-        <v>10</v>
-      </c>
-      <c r="R43" s="167">
-        <v>5</v>
-      </c>
+      <c r="L43" s="159"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="159"/>
+      <c r="O43" s="161"/>
+      <c r="P43" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q43" s="180"/>
+      <c r="R43" s="182"/>
       <c r="S43" s="82"/>
       <c r="T43" s="85"/>
       <c r="U43" s="84"/>
@@ -10547,23 +11004,23 @@
       <c r="EL43" s="93"/>
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
-      <c r="B44" s="214"/>
-      <c r="C44" s="220"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="152"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="146"/>
-      <c r="Q44" s="166"/>
-      <c r="R44" s="168"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="162"/>
+      <c r="P44" s="185"/>
+      <c r="Q44" s="181"/>
+      <c r="R44" s="183"/>
       <c r="S44" s="82"/>
       <c r="T44" s="83"/>
       <c r="U44" s="83"/>
@@ -10690,41 +11147,37 @@
       <c r="EL44" s="94"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="217" t="s">
+      <c r="B45" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="220" t="s">
+      <c r="C45" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="153"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147">
+      <c r="D45" s="155"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="163">
         <v>43294</v>
       </c>
-      <c r="I45" s="147">
+      <c r="I45" s="163">
         <v>43296</v>
       </c>
-      <c r="J45" s="147">
+      <c r="J45" s="163">
         <v>43295</v>
       </c>
-      <c r="K45" s="147">
+      <c r="K45" s="163">
         <v>43297</v>
       </c>
-      <c r="L45" s="149"/>
-      <c r="M45" s="151"/>
-      <c r="N45" s="149"/>
-      <c r="O45" s="151"/>
-      <c r="P45" s="141" t="s">
+      <c r="L45" s="159"/>
+      <c r="M45" s="161"/>
+      <c r="N45" s="159"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="Q45" s="165">
-        <v>10</v>
-      </c>
-      <c r="R45" s="167">
-        <v>5</v>
-      </c>
+      <c r="Q45" s="180"/>
+      <c r="R45" s="182"/>
       <c r="S45" s="82"/>
       <c r="T45" s="85"/>
       <c r="U45" s="84"/>
@@ -10851,23 +11304,23 @@
       <c r="EL45" s="93"/>
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
-      <c r="B46" s="218"/>
-      <c r="C46" s="220"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="150"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="150"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="166"/>
-      <c r="R46" s="168"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="164"/>
+      <c r="L46" s="160"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="160"/>
+      <c r="O46" s="162"/>
+      <c r="P46" s="185"/>
+      <c r="Q46" s="181"/>
+      <c r="R46" s="183"/>
       <c r="S46" s="82"/>
       <c r="T46" s="83"/>
       <c r="U46" s="83"/>
@@ -10994,23 +11447,23 @@
       <c r="EL46" s="94"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="216"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="159"/>
-      <c r="K47" s="159"/>
-      <c r="L47" s="149"/>
-      <c r="M47" s="151"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="151"/>
-      <c r="P47" s="145"/>
-      <c r="Q47" s="161"/>
-      <c r="R47" s="155"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="159"/>
+      <c r="M47" s="161"/>
+      <c r="N47" s="159"/>
+      <c r="O47" s="161"/>
+      <c r="P47" s="157"/>
+      <c r="Q47" s="178"/>
+      <c r="R47" s="176"/>
       <c r="S47" s="82"/>
       <c r="T47" s="85"/>
       <c r="U47" s="84"/>
@@ -11137,23 +11590,23 @@
       <c r="EL47" s="93"/>
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
-      <c r="B48" s="214"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="158"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="160"/>
-      <c r="K48" s="160"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="150"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="146"/>
-      <c r="Q48" s="162"/>
-      <c r="R48" s="156"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="185"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="166"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="162"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="162"/>
+      <c r="P48" s="158"/>
+      <c r="Q48" s="179"/>
+      <c r="R48" s="177"/>
       <c r="S48" s="82"/>
       <c r="T48" s="83"/>
       <c r="U48" s="83"/>
@@ -11280,23 +11733,23 @@
       <c r="EL48" s="94"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="216"/>
-      <c r="C49" s="215"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="159"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="145"/>
-      <c r="Q49" s="161"/>
-      <c r="R49" s="155"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="163"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="165"/>
+      <c r="L49" s="159"/>
+      <c r="M49" s="161"/>
+      <c r="N49" s="159"/>
+      <c r="O49" s="161"/>
+      <c r="P49" s="157"/>
+      <c r="Q49" s="178"/>
+      <c r="R49" s="176"/>
       <c r="S49" s="82"/>
       <c r="T49" s="85"/>
       <c r="U49" s="84"/>
@@ -11423,23 +11876,23 @@
       <c r="EL49" s="93"/>
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
-      <c r="B50" s="214"/>
-      <c r="C50" s="215"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="150"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="146"/>
-      <c r="Q50" s="162"/>
-      <c r="R50" s="156"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="185"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="166"/>
+      <c r="K50" s="166"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="162"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="162"/>
+      <c r="P50" s="158"/>
+      <c r="Q50" s="179"/>
+      <c r="R50" s="177"/>
       <c r="S50" s="82"/>
       <c r="T50" s="83"/>
       <c r="U50" s="83"/>
@@ -11566,23 +12019,23 @@
       <c r="EL50" s="94"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="216"/>
-      <c r="C51" s="215"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="159"/>
-      <c r="K51" s="159"/>
-      <c r="L51" s="149"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="149"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="145"/>
-      <c r="Q51" s="161"/>
-      <c r="R51" s="155"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="163"/>
+      <c r="I51" s="163"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="165"/>
+      <c r="L51" s="159"/>
+      <c r="M51" s="161"/>
+      <c r="N51" s="159"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="157"/>
+      <c r="Q51" s="178"/>
+      <c r="R51" s="176"/>
       <c r="S51" s="82"/>
       <c r="T51" s="85"/>
       <c r="U51" s="84"/>
@@ -11709,23 +12162,23 @@
       <c r="EL51" s="93"/>
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
-      <c r="B52" s="214"/>
-      <c r="C52" s="215"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="160"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="152"/>
-      <c r="N52" s="150"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="146"/>
-      <c r="Q52" s="162"/>
-      <c r="R52" s="156"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="162"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="179"/>
+      <c r="R52" s="177"/>
       <c r="S52" s="82"/>
       <c r="T52" s="83"/>
       <c r="U52" s="83"/>
@@ -11852,23 +12305,23 @@
       <c r="EL52" s="94"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="216"/>
-      <c r="C53" s="215"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="149"/>
-      <c r="M53" s="151"/>
-      <c r="N53" s="149"/>
-      <c r="O53" s="151"/>
-      <c r="P53" s="145"/>
-      <c r="Q53" s="161"/>
-      <c r="R53" s="155"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="159"/>
+      <c r="M53" s="161"/>
+      <c r="N53" s="159"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="178"/>
+      <c r="R53" s="176"/>
       <c r="S53" s="82"/>
       <c r="T53" s="85"/>
       <c r="U53" s="84"/>
@@ -11995,23 +12448,23 @@
       <c r="EL53" s="93"/>
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
-      <c r="B54" s="214"/>
-      <c r="C54" s="215"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="160"/>
-      <c r="L54" s="150"/>
-      <c r="M54" s="152"/>
-      <c r="N54" s="150"/>
-      <c r="O54" s="152"/>
-      <c r="P54" s="146"/>
-      <c r="Q54" s="162"/>
-      <c r="R54" s="156"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="162"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="162"/>
+      <c r="P54" s="158"/>
+      <c r="Q54" s="179"/>
+      <c r="R54" s="177"/>
       <c r="S54" s="82"/>
       <c r="T54" s="83"/>
       <c r="U54" s="83"/>
@@ -12138,23 +12591,23 @@
       <c r="EL54" s="94"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="216"/>
-      <c r="C55" s="215"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="159"/>
-      <c r="K55" s="159"/>
-      <c r="L55" s="149"/>
-      <c r="M55" s="151"/>
-      <c r="N55" s="149"/>
-      <c r="O55" s="151"/>
-      <c r="P55" s="145"/>
-      <c r="Q55" s="161"/>
-      <c r="R55" s="155"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="163"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="165"/>
+      <c r="L55" s="159"/>
+      <c r="M55" s="161"/>
+      <c r="N55" s="159"/>
+      <c r="O55" s="161"/>
+      <c r="P55" s="157"/>
+      <c r="Q55" s="178"/>
+      <c r="R55" s="176"/>
       <c r="S55" s="82"/>
       <c r="T55" s="85"/>
       <c r="U55" s="84"/>
@@ -12281,23 +12734,23 @@
       <c r="EL55" s="93"/>
     </row>
     <row r="56" spans="2:142" ht="9" customHeight="1">
-      <c r="B56" s="214"/>
-      <c r="C56" s="215"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="152"/>
-      <c r="N56" s="150"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="146"/>
-      <c r="Q56" s="162"/>
-      <c r="R56" s="156"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="166"/>
+      <c r="L56" s="160"/>
+      <c r="M56" s="162"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="162"/>
+      <c r="P56" s="158"/>
+      <c r="Q56" s="179"/>
+      <c r="R56" s="177"/>
       <c r="S56" s="82"/>
       <c r="T56" s="83"/>
       <c r="U56" s="83"/>
@@ -12424,23 +12877,23 @@
       <c r="EL56" s="94"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="216"/>
-      <c r="C57" s="215"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="159"/>
-      <c r="L57" s="149"/>
-      <c r="M57" s="151"/>
-      <c r="N57" s="149"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="145"/>
-      <c r="Q57" s="161"/>
-      <c r="R57" s="155"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="163"/>
+      <c r="H57" s="163"/>
+      <c r="I57" s="163"/>
+      <c r="J57" s="165"/>
+      <c r="K57" s="165"/>
+      <c r="L57" s="159"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="157"/>
+      <c r="Q57" s="178"/>
+      <c r="R57" s="176"/>
       <c r="S57" s="82"/>
       <c r="T57" s="85"/>
       <c r="U57" s="84"/>
@@ -12567,23 +13020,23 @@
       <c r="EL57" s="93"/>
     </row>
     <row r="58" spans="2:142" ht="9" customHeight="1">
-      <c r="B58" s="214"/>
-      <c r="C58" s="215"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="146"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="160"/>
-      <c r="L58" s="150"/>
-      <c r="M58" s="152"/>
-      <c r="N58" s="150"/>
-      <c r="O58" s="152"/>
-      <c r="P58" s="146"/>
-      <c r="Q58" s="162"/>
-      <c r="R58" s="156"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="166"/>
+      <c r="K58" s="166"/>
+      <c r="L58" s="160"/>
+      <c r="M58" s="162"/>
+      <c r="N58" s="160"/>
+      <c r="O58" s="162"/>
+      <c r="P58" s="158"/>
+      <c r="Q58" s="179"/>
+      <c r="R58" s="177"/>
       <c r="S58" s="82"/>
       <c r="T58" s="83"/>
       <c r="U58" s="83"/>
@@ -12710,23 +13163,23 @@
       <c r="EL58" s="94"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="216"/>
-      <c r="C59" s="215"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="159"/>
-      <c r="K59" s="159"/>
-      <c r="L59" s="149"/>
-      <c r="M59" s="151"/>
-      <c r="N59" s="149"/>
-      <c r="O59" s="151"/>
-      <c r="P59" s="145"/>
-      <c r="Q59" s="161"/>
-      <c r="R59" s="155"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="153"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="163"/>
+      <c r="I59" s="163"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="165"/>
+      <c r="L59" s="159"/>
+      <c r="M59" s="161"/>
+      <c r="N59" s="159"/>
+      <c r="O59" s="161"/>
+      <c r="P59" s="157"/>
+      <c r="Q59" s="178"/>
+      <c r="R59" s="176"/>
       <c r="S59" s="82"/>
       <c r="T59" s="85"/>
       <c r="U59" s="84"/>
@@ -12853,23 +13306,23 @@
       <c r="EL59" s="93"/>
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
-      <c r="B60" s="214"/>
-      <c r="C60" s="215"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="160"/>
-      <c r="K60" s="160"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="150"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="146"/>
-      <c r="Q60" s="162"/>
-      <c r="R60" s="156"/>
+      <c r="B60" s="151"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="160"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="160"/>
+      <c r="O60" s="162"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="179"/>
+      <c r="R60" s="177"/>
       <c r="S60" s="82"/>
       <c r="T60" s="83"/>
       <c r="U60" s="83"/>
@@ -12996,23 +13449,23 @@
       <c r="EL60" s="94"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="216"/>
-      <c r="C61" s="215"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
-      <c r="J61" s="159"/>
-      <c r="K61" s="159"/>
-      <c r="L61" s="149"/>
-      <c r="M61" s="151"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="151"/>
-      <c r="P61" s="145"/>
-      <c r="Q61" s="161"/>
-      <c r="R61" s="155"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="163"/>
+      <c r="H61" s="163"/>
+      <c r="I61" s="163"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="159"/>
+      <c r="M61" s="161"/>
+      <c r="N61" s="159"/>
+      <c r="O61" s="161"/>
+      <c r="P61" s="157"/>
+      <c r="Q61" s="178"/>
+      <c r="R61" s="176"/>
       <c r="S61" s="82"/>
       <c r="T61" s="85"/>
       <c r="U61" s="84"/>
@@ -13139,23 +13592,23 @@
       <c r="EL61" s="93"/>
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
-      <c r="B62" s="214"/>
-      <c r="C62" s="215"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="160"/>
-      <c r="K62" s="160"/>
-      <c r="L62" s="150"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="150"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="146"/>
-      <c r="Q62" s="162"/>
-      <c r="R62" s="156"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="164"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="166"/>
+      <c r="L62" s="160"/>
+      <c r="M62" s="162"/>
+      <c r="N62" s="160"/>
+      <c r="O62" s="162"/>
+      <c r="P62" s="158"/>
+      <c r="Q62" s="179"/>
+      <c r="R62" s="177"/>
       <c r="S62" s="82"/>
       <c r="T62" s="83"/>
       <c r="U62" s="83"/>
@@ -13282,23 +13735,23 @@
       <c r="EL62" s="94"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="216"/>
-      <c r="C63" s="215"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="145"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="159"/>
-      <c r="L63" s="149"/>
-      <c r="M63" s="151"/>
-      <c r="N63" s="149"/>
-      <c r="O63" s="151"/>
-      <c r="P63" s="145"/>
-      <c r="Q63" s="161"/>
-      <c r="R63" s="155"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="165"/>
+      <c r="K63" s="165"/>
+      <c r="L63" s="159"/>
+      <c r="M63" s="161"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="161"/>
+      <c r="P63" s="157"/>
+      <c r="Q63" s="178"/>
+      <c r="R63" s="176"/>
       <c r="S63" s="82"/>
       <c r="T63" s="85"/>
       <c r="U63" s="84"/>
@@ -13425,23 +13878,23 @@
       <c r="EL63" s="93"/>
     </row>
     <row r="64" spans="2:142" ht="9" customHeight="1">
-      <c r="B64" s="214"/>
-      <c r="C64" s="215"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="160"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="150"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="150"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="146"/>
-      <c r="Q64" s="162"/>
-      <c r="R64" s="156"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="164"/>
+      <c r="J64" s="166"/>
+      <c r="K64" s="166"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="162"/>
+      <c r="N64" s="160"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="158"/>
+      <c r="Q64" s="179"/>
+      <c r="R64" s="177"/>
       <c r="S64" s="82"/>
       <c r="T64" s="83"/>
       <c r="U64" s="83"/>
@@ -13568,23 +14021,23 @@
       <c r="EL64" s="94"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="216"/>
-      <c r="C65" s="215"/>
-      <c r="D65" s="153"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="145"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="159"/>
-      <c r="L65" s="149"/>
-      <c r="M65" s="151"/>
-      <c r="N65" s="149"/>
-      <c r="O65" s="151"/>
-      <c r="P65" s="145"/>
-      <c r="Q65" s="161"/>
-      <c r="R65" s="155"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="163"/>
+      <c r="H65" s="163"/>
+      <c r="I65" s="163"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="161"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="161"/>
+      <c r="P65" s="157"/>
+      <c r="Q65" s="178"/>
+      <c r="R65" s="176"/>
       <c r="S65" s="82"/>
       <c r="T65" s="85"/>
       <c r="U65" s="84"/>
@@ -13711,23 +14164,23 @@
       <c r="EL65" s="93"/>
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
-      <c r="B66" s="214"/>
-      <c r="C66" s="215"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="160"/>
-      <c r="K66" s="160"/>
-      <c r="L66" s="150"/>
-      <c r="M66" s="152"/>
-      <c r="N66" s="150"/>
-      <c r="O66" s="152"/>
-      <c r="P66" s="146"/>
-      <c r="Q66" s="162"/>
-      <c r="R66" s="156"/>
+      <c r="B66" s="151"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="164"/>
+      <c r="H66" s="164"/>
+      <c r="I66" s="164"/>
+      <c r="J66" s="166"/>
+      <c r="K66" s="166"/>
+      <c r="L66" s="160"/>
+      <c r="M66" s="162"/>
+      <c r="N66" s="160"/>
+      <c r="O66" s="162"/>
+      <c r="P66" s="158"/>
+      <c r="Q66" s="179"/>
+      <c r="R66" s="177"/>
       <c r="S66" s="82"/>
       <c r="T66" s="83"/>
       <c r="U66" s="83"/>
@@ -13854,23 +14307,23 @@
       <c r="EL66" s="94"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="216"/>
-      <c r="C67" s="215"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="159"/>
-      <c r="K67" s="159"/>
-      <c r="L67" s="149"/>
-      <c r="M67" s="151"/>
-      <c r="N67" s="149"/>
-      <c r="O67" s="151"/>
-      <c r="P67" s="145"/>
-      <c r="Q67" s="161"/>
-      <c r="R67" s="155"/>
+      <c r="B67" s="150"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="163"/>
+      <c r="H67" s="163"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="165"/>
+      <c r="K67" s="165"/>
+      <c r="L67" s="159"/>
+      <c r="M67" s="161"/>
+      <c r="N67" s="159"/>
+      <c r="O67" s="161"/>
+      <c r="P67" s="157"/>
+      <c r="Q67" s="178"/>
+      <c r="R67" s="176"/>
       <c r="S67" s="82"/>
       <c r="T67" s="85"/>
       <c r="U67" s="84"/>
@@ -13997,23 +14450,23 @@
       <c r="EL67" s="93"/>
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
-      <c r="B68" s="214"/>
-      <c r="C68" s="215"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="158"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="160"/>
-      <c r="K68" s="160"/>
-      <c r="L68" s="150"/>
-      <c r="M68" s="152"/>
-      <c r="N68" s="150"/>
-      <c r="O68" s="152"/>
-      <c r="P68" s="146"/>
-      <c r="Q68" s="162"/>
-      <c r="R68" s="156"/>
+      <c r="B68" s="151"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="164"/>
+      <c r="H68" s="164"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="166"/>
+      <c r="K68" s="166"/>
+      <c r="L68" s="160"/>
+      <c r="M68" s="162"/>
+      <c r="N68" s="160"/>
+      <c r="O68" s="162"/>
+      <c r="P68" s="158"/>
+      <c r="Q68" s="179"/>
+      <c r="R68" s="177"/>
       <c r="S68" s="82"/>
       <c r="T68" s="83"/>
       <c r="U68" s="83"/>
@@ -14140,23 +14593,23 @@
       <c r="EL68" s="94"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="216"/>
-      <c r="C69" s="215"/>
-      <c r="D69" s="153"/>
-      <c r="E69" s="157"/>
-      <c r="F69" s="145"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="147"/>
-      <c r="I69" s="147"/>
-      <c r="J69" s="159"/>
-      <c r="K69" s="159"/>
-      <c r="L69" s="149"/>
-      <c r="M69" s="151"/>
-      <c r="N69" s="149"/>
-      <c r="O69" s="151"/>
-      <c r="P69" s="145"/>
-      <c r="Q69" s="161"/>
-      <c r="R69" s="155"/>
+      <c r="B69" s="150"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="153"/>
+      <c r="F69" s="157"/>
+      <c r="G69" s="163"/>
+      <c r="H69" s="163"/>
+      <c r="I69" s="163"/>
+      <c r="J69" s="165"/>
+      <c r="K69" s="165"/>
+      <c r="L69" s="159"/>
+      <c r="M69" s="161"/>
+      <c r="N69" s="159"/>
+      <c r="O69" s="161"/>
+      <c r="P69" s="157"/>
+      <c r="Q69" s="178"/>
+      <c r="R69" s="176"/>
       <c r="S69" s="82"/>
       <c r="T69" s="85"/>
       <c r="U69" s="84"/>
@@ -14283,23 +14736,23 @@
       <c r="EL69" s="93"/>
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
-      <c r="B70" s="214"/>
-      <c r="C70" s="215"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="158"/>
-      <c r="F70" s="146"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="160"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="150"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="150"/>
-      <c r="O70" s="152"/>
-      <c r="P70" s="146"/>
-      <c r="Q70" s="162"/>
-      <c r="R70" s="156"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="154"/>
+      <c r="F70" s="158"/>
+      <c r="G70" s="164"/>
+      <c r="H70" s="164"/>
+      <c r="I70" s="164"/>
+      <c r="J70" s="166"/>
+      <c r="K70" s="166"/>
+      <c r="L70" s="160"/>
+      <c r="M70" s="162"/>
+      <c r="N70" s="160"/>
+      <c r="O70" s="162"/>
+      <c r="P70" s="158"/>
+      <c r="Q70" s="179"/>
+      <c r="R70" s="177"/>
       <c r="S70" s="82"/>
       <c r="T70" s="83"/>
       <c r="U70" s="83"/>
@@ -14426,23 +14879,23 @@
       <c r="EL70" s="94"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="216"/>
-      <c r="C71" s="215"/>
-      <c r="D71" s="153"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="145"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="159"/>
-      <c r="K71" s="159"/>
-      <c r="L71" s="149"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="149"/>
-      <c r="O71" s="151"/>
-      <c r="P71" s="145"/>
-      <c r="Q71" s="161"/>
-      <c r="R71" s="155"/>
+      <c r="B71" s="150"/>
+      <c r="C71" s="152"/>
+      <c r="D71" s="155"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="157"/>
+      <c r="G71" s="163"/>
+      <c r="H71" s="163"/>
+      <c r="I71" s="163"/>
+      <c r="J71" s="165"/>
+      <c r="K71" s="165"/>
+      <c r="L71" s="159"/>
+      <c r="M71" s="161"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="161"/>
+      <c r="P71" s="157"/>
+      <c r="Q71" s="178"/>
+      <c r="R71" s="176"/>
       <c r="S71" s="82"/>
       <c r="T71" s="85"/>
       <c r="U71" s="84"/>
@@ -14569,23 +15022,23 @@
       <c r="EL71" s="93"/>
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
-      <c r="B72" s="214"/>
-      <c r="C72" s="215"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="158"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="150"/>
-      <c r="M72" s="152"/>
-      <c r="N72" s="150"/>
-      <c r="O72" s="152"/>
-      <c r="P72" s="146"/>
-      <c r="Q72" s="162"/>
-      <c r="R72" s="156"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="152"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="158"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="164"/>
+      <c r="I72" s="164"/>
+      <c r="J72" s="166"/>
+      <c r="K72" s="166"/>
+      <c r="L72" s="160"/>
+      <c r="M72" s="162"/>
+      <c r="N72" s="160"/>
+      <c r="O72" s="162"/>
+      <c r="P72" s="158"/>
+      <c r="Q72" s="179"/>
+      <c r="R72" s="177"/>
       <c r="S72" s="82"/>
       <c r="T72" s="83"/>
       <c r="U72" s="83"/>
@@ -14712,23 +15165,23 @@
       <c r="EL72" s="94"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="216"/>
-      <c r="C73" s="215"/>
-      <c r="D73" s="153"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="145"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="147"/>
-      <c r="I73" s="147"/>
-      <c r="J73" s="159"/>
-      <c r="K73" s="159"/>
-      <c r="L73" s="149"/>
-      <c r="M73" s="151"/>
-      <c r="N73" s="149"/>
-      <c r="O73" s="151"/>
-      <c r="P73" s="145"/>
-      <c r="Q73" s="161"/>
-      <c r="R73" s="155"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="152"/>
+      <c r="D73" s="155"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="163"/>
+      <c r="I73" s="163"/>
+      <c r="J73" s="165"/>
+      <c r="K73" s="165"/>
+      <c r="L73" s="159"/>
+      <c r="M73" s="161"/>
+      <c r="N73" s="159"/>
+      <c r="O73" s="161"/>
+      <c r="P73" s="157"/>
+      <c r="Q73" s="178"/>
+      <c r="R73" s="176"/>
       <c r="S73" s="82"/>
       <c r="T73" s="85"/>
       <c r="U73" s="84"/>
@@ -14855,23 +15308,23 @@
       <c r="EL73" s="93"/>
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
-      <c r="B74" s="214"/>
-      <c r="C74" s="215"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="158"/>
-      <c r="F74" s="146"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="160"/>
-      <c r="K74" s="160"/>
-      <c r="L74" s="150"/>
-      <c r="M74" s="152"/>
-      <c r="N74" s="150"/>
-      <c r="O74" s="152"/>
-      <c r="P74" s="146"/>
-      <c r="Q74" s="162"/>
-      <c r="R74" s="156"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="152"/>
+      <c r="D74" s="156"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="164"/>
+      <c r="H74" s="164"/>
+      <c r="I74" s="164"/>
+      <c r="J74" s="166"/>
+      <c r="K74" s="166"/>
+      <c r="L74" s="160"/>
+      <c r="M74" s="162"/>
+      <c r="N74" s="160"/>
+      <c r="O74" s="162"/>
+      <c r="P74" s="158"/>
+      <c r="Q74" s="179"/>
+      <c r="R74" s="177"/>
       <c r="S74" s="82"/>
       <c r="T74" s="83"/>
       <c r="U74" s="83"/>
@@ -14998,23 +15451,23 @@
       <c r="EL74" s="94"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="216"/>
-      <c r="C75" s="215"/>
-      <c r="D75" s="153"/>
-      <c r="E75" s="157"/>
-      <c r="F75" s="145"/>
-      <c r="G75" s="147"/>
-      <c r="H75" s="147"/>
-      <c r="I75" s="147"/>
-      <c r="J75" s="159"/>
-      <c r="K75" s="159"/>
-      <c r="L75" s="149"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="149"/>
-      <c r="O75" s="151"/>
-      <c r="P75" s="145"/>
-      <c r="Q75" s="161"/>
-      <c r="R75" s="155"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="152"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="157"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="165"/>
+      <c r="L75" s="159"/>
+      <c r="M75" s="161"/>
+      <c r="N75" s="159"/>
+      <c r="O75" s="161"/>
+      <c r="P75" s="157"/>
+      <c r="Q75" s="178"/>
+      <c r="R75" s="176"/>
       <c r="S75" s="82"/>
       <c r="T75" s="85"/>
       <c r="U75" s="84"/>
@@ -15141,23 +15594,23 @@
       <c r="EL75" s="93"/>
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
-      <c r="B76" s="214"/>
-      <c r="C76" s="215"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="158"/>
-      <c r="F76" s="146"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="160"/>
-      <c r="K76" s="160"/>
-      <c r="L76" s="150"/>
-      <c r="M76" s="152"/>
-      <c r="N76" s="150"/>
-      <c r="O76" s="152"/>
-      <c r="P76" s="146"/>
-      <c r="Q76" s="162"/>
-      <c r="R76" s="156"/>
+      <c r="B76" s="151"/>
+      <c r="C76" s="152"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="164"/>
+      <c r="H76" s="164"/>
+      <c r="I76" s="164"/>
+      <c r="J76" s="166"/>
+      <c r="K76" s="166"/>
+      <c r="L76" s="160"/>
+      <c r="M76" s="162"/>
+      <c r="N76" s="160"/>
+      <c r="O76" s="162"/>
+      <c r="P76" s="158"/>
+      <c r="Q76" s="179"/>
+      <c r="R76" s="177"/>
       <c r="S76" s="82"/>
       <c r="T76" s="83"/>
       <c r="U76" s="83"/>
@@ -15284,23 +15737,23 @@
       <c r="EL76" s="94"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="216"/>
-      <c r="C77" s="215"/>
-      <c r="D77" s="153"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="145"/>
-      <c r="G77" s="147"/>
-      <c r="H77" s="147"/>
-      <c r="I77" s="147"/>
-      <c r="J77" s="159"/>
-      <c r="K77" s="159"/>
-      <c r="L77" s="149"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="149"/>
-      <c r="O77" s="151"/>
-      <c r="P77" s="145"/>
-      <c r="Q77" s="161"/>
-      <c r="R77" s="155"/>
+      <c r="B77" s="150"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="155"/>
+      <c r="E77" s="153"/>
+      <c r="F77" s="157"/>
+      <c r="G77" s="163"/>
+      <c r="H77" s="163"/>
+      <c r="I77" s="163"/>
+      <c r="J77" s="165"/>
+      <c r="K77" s="165"/>
+      <c r="L77" s="159"/>
+      <c r="M77" s="161"/>
+      <c r="N77" s="159"/>
+      <c r="O77" s="161"/>
+      <c r="P77" s="157"/>
+      <c r="Q77" s="178"/>
+      <c r="R77" s="176"/>
       <c r="S77" s="82"/>
       <c r="T77" s="85"/>
       <c r="U77" s="84"/>
@@ -15427,23 +15880,23 @@
       <c r="EL77" s="93"/>
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
-      <c r="B78" s="214"/>
-      <c r="C78" s="215"/>
-      <c r="D78" s="154"/>
-      <c r="E78" s="158"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="160"/>
-      <c r="K78" s="160"/>
-      <c r="L78" s="150"/>
-      <c r="M78" s="152"/>
-      <c r="N78" s="150"/>
-      <c r="O78" s="152"/>
-      <c r="P78" s="146"/>
-      <c r="Q78" s="162"/>
-      <c r="R78" s="156"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="154"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="164"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="166"/>
+      <c r="K78" s="166"/>
+      <c r="L78" s="160"/>
+      <c r="M78" s="162"/>
+      <c r="N78" s="160"/>
+      <c r="O78" s="162"/>
+      <c r="P78" s="158"/>
+      <c r="Q78" s="179"/>
+      <c r="R78" s="177"/>
       <c r="S78" s="82"/>
       <c r="T78" s="83"/>
       <c r="U78" s="83"/>
@@ -15570,23 +16023,23 @@
       <c r="EL78" s="94"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="216"/>
-      <c r="C79" s="215"/>
-      <c r="D79" s="153"/>
-      <c r="E79" s="157"/>
-      <c r="F79" s="145"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="147"/>
-      <c r="J79" s="159"/>
-      <c r="K79" s="159"/>
-      <c r="L79" s="149"/>
-      <c r="M79" s="151"/>
-      <c r="N79" s="149"/>
-      <c r="O79" s="151"/>
-      <c r="P79" s="145"/>
-      <c r="Q79" s="161"/>
-      <c r="R79" s="155"/>
+      <c r="B79" s="150"/>
+      <c r="C79" s="152"/>
+      <c r="D79" s="155"/>
+      <c r="E79" s="153"/>
+      <c r="F79" s="157"/>
+      <c r="G79" s="163"/>
+      <c r="H79" s="163"/>
+      <c r="I79" s="163"/>
+      <c r="J79" s="165"/>
+      <c r="K79" s="165"/>
+      <c r="L79" s="159"/>
+      <c r="M79" s="161"/>
+      <c r="N79" s="159"/>
+      <c r="O79" s="161"/>
+      <c r="P79" s="157"/>
+      <c r="Q79" s="178"/>
+      <c r="R79" s="176"/>
       <c r="S79" s="82"/>
       <c r="T79" s="85"/>
       <c r="U79" s="84"/>
@@ -15713,23 +16166,23 @@
       <c r="EL79" s="93"/>
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
-      <c r="B80" s="214"/>
-      <c r="C80" s="215"/>
-      <c r="D80" s="154"/>
-      <c r="E80" s="158"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="160"/>
-      <c r="K80" s="160"/>
-      <c r="L80" s="150"/>
-      <c r="M80" s="152"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="152"/>
-      <c r="P80" s="146"/>
-      <c r="Q80" s="162"/>
-      <c r="R80" s="156"/>
+      <c r="B80" s="151"/>
+      <c r="C80" s="152"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="158"/>
+      <c r="G80" s="164"/>
+      <c r="H80" s="164"/>
+      <c r="I80" s="164"/>
+      <c r="J80" s="166"/>
+      <c r="K80" s="166"/>
+      <c r="L80" s="160"/>
+      <c r="M80" s="162"/>
+      <c r="N80" s="160"/>
+      <c r="O80" s="162"/>
+      <c r="P80" s="158"/>
+      <c r="Q80" s="179"/>
+      <c r="R80" s="177"/>
       <c r="S80" s="82"/>
       <c r="T80" s="83"/>
       <c r="U80" s="83"/>
@@ -15856,23 +16309,23 @@
       <c r="EL80" s="94"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="216"/>
-      <c r="C81" s="215"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="157"/>
-      <c r="F81" s="145"/>
-      <c r="G81" s="147"/>
-      <c r="H81" s="147"/>
-      <c r="I81" s="147"/>
-      <c r="J81" s="159"/>
-      <c r="K81" s="159"/>
-      <c r="L81" s="149"/>
-      <c r="M81" s="151"/>
-      <c r="N81" s="149"/>
-      <c r="O81" s="151"/>
-      <c r="P81" s="145"/>
-      <c r="Q81" s="161"/>
-      <c r="R81" s="155"/>
+      <c r="B81" s="150"/>
+      <c r="C81" s="152"/>
+      <c r="D81" s="155"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="157"/>
+      <c r="G81" s="163"/>
+      <c r="H81" s="163"/>
+      <c r="I81" s="163"/>
+      <c r="J81" s="165"/>
+      <c r="K81" s="165"/>
+      <c r="L81" s="159"/>
+      <c r="M81" s="161"/>
+      <c r="N81" s="159"/>
+      <c r="O81" s="161"/>
+      <c r="P81" s="157"/>
+      <c r="Q81" s="178"/>
+      <c r="R81" s="176"/>
       <c r="S81" s="82"/>
       <c r="T81" s="85"/>
       <c r="U81" s="84"/>
@@ -15999,23 +16452,23 @@
       <c r="EL81" s="93"/>
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
-      <c r="B82" s="214"/>
-      <c r="C82" s="215"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="158"/>
-      <c r="F82" s="146"/>
-      <c r="G82" s="148"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="148"/>
-      <c r="J82" s="160"/>
-      <c r="K82" s="160"/>
-      <c r="L82" s="150"/>
-      <c r="M82" s="152"/>
-      <c r="N82" s="150"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="146"/>
-      <c r="Q82" s="162"/>
-      <c r="R82" s="156"/>
+      <c r="B82" s="151"/>
+      <c r="C82" s="152"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="154"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="164"/>
+      <c r="H82" s="164"/>
+      <c r="I82" s="164"/>
+      <c r="J82" s="166"/>
+      <c r="K82" s="166"/>
+      <c r="L82" s="160"/>
+      <c r="M82" s="162"/>
+      <c r="N82" s="160"/>
+      <c r="O82" s="162"/>
+      <c r="P82" s="158"/>
+      <c r="Q82" s="179"/>
+      <c r="R82" s="177"/>
       <c r="S82" s="82"/>
       <c r="T82" s="83"/>
       <c r="U82" s="83"/>
@@ -16142,23 +16595,23 @@
       <c r="EL82" s="94"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="216"/>
-      <c r="C83" s="215"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="157"/>
-      <c r="F83" s="145"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="147"/>
-      <c r="I83" s="147"/>
-      <c r="J83" s="159"/>
-      <c r="K83" s="159"/>
-      <c r="L83" s="149"/>
-      <c r="M83" s="151"/>
-      <c r="N83" s="149"/>
-      <c r="O83" s="151"/>
-      <c r="P83" s="145"/>
-      <c r="Q83" s="161"/>
-      <c r="R83" s="155"/>
+      <c r="B83" s="150"/>
+      <c r="C83" s="152"/>
+      <c r="D83" s="155"/>
+      <c r="E83" s="153"/>
+      <c r="F83" s="157"/>
+      <c r="G83" s="163"/>
+      <c r="H83" s="163"/>
+      <c r="I83" s="163"/>
+      <c r="J83" s="165"/>
+      <c r="K83" s="165"/>
+      <c r="L83" s="159"/>
+      <c r="M83" s="161"/>
+      <c r="N83" s="159"/>
+      <c r="O83" s="161"/>
+      <c r="P83" s="157"/>
+      <c r="Q83" s="178"/>
+      <c r="R83" s="176"/>
       <c r="S83" s="82"/>
       <c r="T83" s="85"/>
       <c r="U83" s="84"/>
@@ -16285,23 +16738,23 @@
       <c r="EL83" s="93"/>
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
-      <c r="B84" s="214"/>
-      <c r="C84" s="215"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="158"/>
-      <c r="F84" s="146"/>
-      <c r="G84" s="148"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="160"/>
-      <c r="K84" s="160"/>
-      <c r="L84" s="150"/>
-      <c r="M84" s="152"/>
-      <c r="N84" s="150"/>
-      <c r="O84" s="152"/>
-      <c r="P84" s="146"/>
-      <c r="Q84" s="162"/>
-      <c r="R84" s="156"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="152"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="154"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="164"/>
+      <c r="H84" s="164"/>
+      <c r="I84" s="164"/>
+      <c r="J84" s="166"/>
+      <c r="K84" s="166"/>
+      <c r="L84" s="160"/>
+      <c r="M84" s="162"/>
+      <c r="N84" s="160"/>
+      <c r="O84" s="162"/>
+      <c r="P84" s="158"/>
+      <c r="Q84" s="179"/>
+      <c r="R84" s="177"/>
       <c r="S84" s="82"/>
       <c r="T84" s="83"/>
       <c r="U84" s="83"/>
@@ -16428,23 +16881,23 @@
       <c r="EL84" s="94"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="216"/>
-      <c r="C85" s="215"/>
-      <c r="D85" s="153"/>
-      <c r="E85" s="157"/>
-      <c r="F85" s="145"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="147"/>
-      <c r="I85" s="147"/>
-      <c r="J85" s="159"/>
-      <c r="K85" s="159"/>
-      <c r="L85" s="149"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="149"/>
-      <c r="O85" s="151"/>
-      <c r="P85" s="145"/>
-      <c r="Q85" s="161"/>
-      <c r="R85" s="155"/>
+      <c r="B85" s="150"/>
+      <c r="C85" s="152"/>
+      <c r="D85" s="155"/>
+      <c r="E85" s="153"/>
+      <c r="F85" s="157"/>
+      <c r="G85" s="163"/>
+      <c r="H85" s="163"/>
+      <c r="I85" s="163"/>
+      <c r="J85" s="165"/>
+      <c r="K85" s="165"/>
+      <c r="L85" s="159"/>
+      <c r="M85" s="161"/>
+      <c r="N85" s="159"/>
+      <c r="O85" s="161"/>
+      <c r="P85" s="157"/>
+      <c r="Q85" s="178"/>
+      <c r="R85" s="176"/>
       <c r="S85" s="82"/>
       <c r="T85" s="85"/>
       <c r="U85" s="84"/>
@@ -16571,23 +17024,23 @@
       <c r="EL85" s="93"/>
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
-      <c r="B86" s="214"/>
-      <c r="C86" s="215"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="158"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="148"/>
-      <c r="I86" s="148"/>
-      <c r="J86" s="160"/>
-      <c r="K86" s="160"/>
-      <c r="L86" s="150"/>
-      <c r="M86" s="152"/>
-      <c r="N86" s="150"/>
-      <c r="O86" s="152"/>
-      <c r="P86" s="146"/>
-      <c r="Q86" s="162"/>
-      <c r="R86" s="156"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="152"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="158"/>
+      <c r="G86" s="164"/>
+      <c r="H86" s="164"/>
+      <c r="I86" s="164"/>
+      <c r="J86" s="166"/>
+      <c r="K86" s="166"/>
+      <c r="L86" s="160"/>
+      <c r="M86" s="162"/>
+      <c r="N86" s="160"/>
+      <c r="O86" s="162"/>
+      <c r="P86" s="158"/>
+      <c r="Q86" s="179"/>
+      <c r="R86" s="177"/>
       <c r="S86" s="82"/>
       <c r="T86" s="83"/>
       <c r="U86" s="83"/>
@@ -16714,23 +17167,23 @@
       <c r="EL86" s="94"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="216"/>
-      <c r="C87" s="215"/>
-      <c r="D87" s="153"/>
-      <c r="E87" s="157"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="147"/>
-      <c r="H87" s="147"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="159"/>
-      <c r="K87" s="159"/>
-      <c r="L87" s="149"/>
-      <c r="M87" s="151"/>
-      <c r="N87" s="149"/>
-      <c r="O87" s="151"/>
-      <c r="P87" s="145"/>
-      <c r="Q87" s="161"/>
-      <c r="R87" s="155"/>
+      <c r="B87" s="150"/>
+      <c r="C87" s="152"/>
+      <c r="D87" s="155"/>
+      <c r="E87" s="153"/>
+      <c r="F87" s="157"/>
+      <c r="G87" s="163"/>
+      <c r="H87" s="163"/>
+      <c r="I87" s="163"/>
+      <c r="J87" s="165"/>
+      <c r="K87" s="165"/>
+      <c r="L87" s="159"/>
+      <c r="M87" s="161"/>
+      <c r="N87" s="159"/>
+      <c r="O87" s="161"/>
+      <c r="P87" s="157"/>
+      <c r="Q87" s="178"/>
+      <c r="R87" s="176"/>
       <c r="S87" s="82"/>
       <c r="T87" s="85"/>
       <c r="U87" s="84"/>
@@ -16857,23 +17310,23 @@
       <c r="EL87" s="93"/>
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
-      <c r="B88" s="214"/>
-      <c r="C88" s="215"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="158"/>
-      <c r="F88" s="146"/>
-      <c r="G88" s="148"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="160"/>
-      <c r="K88" s="160"/>
-      <c r="L88" s="150"/>
-      <c r="M88" s="152"/>
-      <c r="N88" s="150"/>
-      <c r="O88" s="152"/>
-      <c r="P88" s="146"/>
-      <c r="Q88" s="162"/>
-      <c r="R88" s="156"/>
+      <c r="B88" s="151"/>
+      <c r="C88" s="152"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="154"/>
+      <c r="F88" s="158"/>
+      <c r="G88" s="164"/>
+      <c r="H88" s="164"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="166"/>
+      <c r="K88" s="166"/>
+      <c r="L88" s="160"/>
+      <c r="M88" s="162"/>
+      <c r="N88" s="160"/>
+      <c r="O88" s="162"/>
+      <c r="P88" s="158"/>
+      <c r="Q88" s="179"/>
+      <c r="R88" s="177"/>
       <c r="S88" s="82"/>
       <c r="T88" s="83"/>
       <c r="U88" s="83"/>
@@ -17000,23 +17453,23 @@
       <c r="EL88" s="94"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="216"/>
-      <c r="C89" s="215"/>
-      <c r="D89" s="153"/>
-      <c r="E89" s="157"/>
-      <c r="F89" s="145"/>
-      <c r="G89" s="147"/>
-      <c r="H89" s="147"/>
-      <c r="I89" s="147"/>
-      <c r="J89" s="159"/>
-      <c r="K89" s="159"/>
-      <c r="L89" s="149"/>
-      <c r="M89" s="151"/>
-      <c r="N89" s="149"/>
-      <c r="O89" s="151"/>
-      <c r="P89" s="145"/>
-      <c r="Q89" s="161"/>
-      <c r="R89" s="155"/>
+      <c r="B89" s="150"/>
+      <c r="C89" s="152"/>
+      <c r="D89" s="155"/>
+      <c r="E89" s="153"/>
+      <c r="F89" s="157"/>
+      <c r="G89" s="163"/>
+      <c r="H89" s="163"/>
+      <c r="I89" s="163"/>
+      <c r="J89" s="165"/>
+      <c r="K89" s="165"/>
+      <c r="L89" s="159"/>
+      <c r="M89" s="161"/>
+      <c r="N89" s="159"/>
+      <c r="O89" s="161"/>
+      <c r="P89" s="157"/>
+      <c r="Q89" s="178"/>
+      <c r="R89" s="176"/>
       <c r="S89" s="82"/>
       <c r="T89" s="85"/>
       <c r="U89" s="84"/>
@@ -17143,23 +17596,23 @@
       <c r="EL89" s="93"/>
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
-      <c r="B90" s="214"/>
-      <c r="C90" s="215"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="158"/>
-      <c r="F90" s="146"/>
-      <c r="G90" s="148"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="160"/>
-      <c r="K90" s="160"/>
-      <c r="L90" s="150"/>
-      <c r="M90" s="152"/>
-      <c r="N90" s="150"/>
-      <c r="O90" s="152"/>
-      <c r="P90" s="146"/>
-      <c r="Q90" s="162"/>
-      <c r="R90" s="156"/>
+      <c r="B90" s="151"/>
+      <c r="C90" s="152"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="154"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="164"/>
+      <c r="H90" s="164"/>
+      <c r="I90" s="164"/>
+      <c r="J90" s="166"/>
+      <c r="K90" s="166"/>
+      <c r="L90" s="160"/>
+      <c r="M90" s="162"/>
+      <c r="N90" s="160"/>
+      <c r="O90" s="162"/>
+      <c r="P90" s="158"/>
+      <c r="Q90" s="179"/>
+      <c r="R90" s="177"/>
       <c r="S90" s="82"/>
       <c r="T90" s="83"/>
       <c r="U90" s="83"/>
@@ -17286,23 +17739,23 @@
       <c r="EL90" s="94"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="216"/>
-      <c r="C91" s="215"/>
-      <c r="D91" s="153"/>
-      <c r="E91" s="157"/>
-      <c r="F91" s="145"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="147"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="159"/>
-      <c r="K91" s="159"/>
-      <c r="L91" s="149"/>
-      <c r="M91" s="151"/>
-      <c r="N91" s="149"/>
-      <c r="O91" s="151"/>
-      <c r="P91" s="145"/>
-      <c r="Q91" s="161"/>
-      <c r="R91" s="155"/>
+      <c r="B91" s="150"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="153"/>
+      <c r="F91" s="157"/>
+      <c r="G91" s="163"/>
+      <c r="H91" s="163"/>
+      <c r="I91" s="163"/>
+      <c r="J91" s="165"/>
+      <c r="K91" s="165"/>
+      <c r="L91" s="159"/>
+      <c r="M91" s="161"/>
+      <c r="N91" s="159"/>
+      <c r="O91" s="161"/>
+      <c r="P91" s="157"/>
+      <c r="Q91" s="178"/>
+      <c r="R91" s="176"/>
       <c r="S91" s="82"/>
       <c r="T91" s="85"/>
       <c r="U91" s="84"/>
@@ -17429,23 +17882,23 @@
       <c r="EL91" s="93"/>
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
-      <c r="B92" s="214"/>
-      <c r="C92" s="215"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="158"/>
-      <c r="F92" s="146"/>
-      <c r="G92" s="148"/>
-      <c r="H92" s="148"/>
-      <c r="I92" s="148"/>
-      <c r="J92" s="160"/>
-      <c r="K92" s="160"/>
-      <c r="L92" s="150"/>
-      <c r="M92" s="152"/>
-      <c r="N92" s="150"/>
-      <c r="O92" s="152"/>
-      <c r="P92" s="146"/>
-      <c r="Q92" s="162"/>
-      <c r="R92" s="156"/>
+      <c r="B92" s="151"/>
+      <c r="C92" s="152"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="158"/>
+      <c r="G92" s="164"/>
+      <c r="H92" s="164"/>
+      <c r="I92" s="164"/>
+      <c r="J92" s="166"/>
+      <c r="K92" s="166"/>
+      <c r="L92" s="160"/>
+      <c r="M92" s="162"/>
+      <c r="N92" s="160"/>
+      <c r="O92" s="162"/>
+      <c r="P92" s="158"/>
+      <c r="Q92" s="179"/>
+      <c r="R92" s="177"/>
       <c r="S92" s="82"/>
       <c r="T92" s="83"/>
       <c r="U92" s="83"/>
@@ -17572,23 +18025,23 @@
       <c r="EL92" s="94"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="216"/>
-      <c r="C93" s="215"/>
-      <c r="D93" s="153"/>
-      <c r="E93" s="157"/>
-      <c r="F93" s="145"/>
-      <c r="G93" s="147"/>
-      <c r="H93" s="147"/>
-      <c r="I93" s="147"/>
-      <c r="J93" s="159"/>
-      <c r="K93" s="159"/>
-      <c r="L93" s="149"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="149"/>
-      <c r="O93" s="151"/>
-      <c r="P93" s="145"/>
-      <c r="Q93" s="161"/>
-      <c r="R93" s="155"/>
+      <c r="B93" s="150"/>
+      <c r="C93" s="152"/>
+      <c r="D93" s="155"/>
+      <c r="E93" s="153"/>
+      <c r="F93" s="157"/>
+      <c r="G93" s="163"/>
+      <c r="H93" s="163"/>
+      <c r="I93" s="163"/>
+      <c r="J93" s="165"/>
+      <c r="K93" s="165"/>
+      <c r="L93" s="159"/>
+      <c r="M93" s="161"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="161"/>
+      <c r="P93" s="157"/>
+      <c r="Q93" s="178"/>
+      <c r="R93" s="176"/>
       <c r="S93" s="82"/>
       <c r="T93" s="85"/>
       <c r="U93" s="84"/>
@@ -17715,23 +18168,23 @@
       <c r="EL93" s="93"/>
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
-      <c r="B94" s="214"/>
-      <c r="C94" s="215"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="158"/>
-      <c r="F94" s="146"/>
-      <c r="G94" s="148"/>
-      <c r="H94" s="148"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="160"/>
-      <c r="K94" s="160"/>
-      <c r="L94" s="150"/>
-      <c r="M94" s="152"/>
-      <c r="N94" s="150"/>
-      <c r="O94" s="152"/>
-      <c r="P94" s="146"/>
-      <c r="Q94" s="162"/>
-      <c r="R94" s="156"/>
+      <c r="B94" s="151"/>
+      <c r="C94" s="152"/>
+      <c r="D94" s="156"/>
+      <c r="E94" s="154"/>
+      <c r="F94" s="158"/>
+      <c r="G94" s="164"/>
+      <c r="H94" s="164"/>
+      <c r="I94" s="164"/>
+      <c r="J94" s="166"/>
+      <c r="K94" s="166"/>
+      <c r="L94" s="160"/>
+      <c r="M94" s="162"/>
+      <c r="N94" s="160"/>
+      <c r="O94" s="162"/>
+      <c r="P94" s="158"/>
+      <c r="Q94" s="179"/>
+      <c r="R94" s="177"/>
       <c r="S94" s="82"/>
       <c r="T94" s="83"/>
       <c r="U94" s="83"/>
@@ -17858,23 +18311,23 @@
       <c r="EL94" s="94"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="216"/>
-      <c r="C95" s="215"/>
-      <c r="D95" s="153"/>
-      <c r="E95" s="157"/>
-      <c r="F95" s="145"/>
-      <c r="G95" s="147"/>
-      <c r="H95" s="147"/>
-      <c r="I95" s="147"/>
-      <c r="J95" s="159"/>
-      <c r="K95" s="159"/>
-      <c r="L95" s="149"/>
-      <c r="M95" s="151"/>
-      <c r="N95" s="149"/>
-      <c r="O95" s="151"/>
-      <c r="P95" s="145"/>
-      <c r="Q95" s="161"/>
-      <c r="R95" s="155"/>
+      <c r="B95" s="150"/>
+      <c r="C95" s="152"/>
+      <c r="D95" s="155"/>
+      <c r="E95" s="153"/>
+      <c r="F95" s="157"/>
+      <c r="G95" s="163"/>
+      <c r="H95" s="163"/>
+      <c r="I95" s="163"/>
+      <c r="J95" s="165"/>
+      <c r="K95" s="165"/>
+      <c r="L95" s="159"/>
+      <c r="M95" s="161"/>
+      <c r="N95" s="159"/>
+      <c r="O95" s="161"/>
+      <c r="P95" s="157"/>
+      <c r="Q95" s="178"/>
+      <c r="R95" s="176"/>
       <c r="S95" s="82"/>
       <c r="T95" s="85"/>
       <c r="U95" s="84"/>
@@ -18001,23 +18454,23 @@
       <c r="EL95" s="93"/>
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
-      <c r="B96" s="214"/>
-      <c r="C96" s="215"/>
-      <c r="D96" s="154"/>
-      <c r="E96" s="158"/>
-      <c r="F96" s="146"/>
-      <c r="G96" s="148"/>
-      <c r="H96" s="148"/>
-      <c r="I96" s="148"/>
-      <c r="J96" s="160"/>
-      <c r="K96" s="160"/>
-      <c r="L96" s="150"/>
-      <c r="M96" s="152"/>
-      <c r="N96" s="150"/>
-      <c r="O96" s="152"/>
-      <c r="P96" s="146"/>
-      <c r="Q96" s="162"/>
-      <c r="R96" s="156"/>
+      <c r="B96" s="151"/>
+      <c r="C96" s="152"/>
+      <c r="D96" s="156"/>
+      <c r="E96" s="154"/>
+      <c r="F96" s="158"/>
+      <c r="G96" s="164"/>
+      <c r="H96" s="164"/>
+      <c r="I96" s="164"/>
+      <c r="J96" s="166"/>
+      <c r="K96" s="166"/>
+      <c r="L96" s="160"/>
+      <c r="M96" s="162"/>
+      <c r="N96" s="160"/>
+      <c r="O96" s="162"/>
+      <c r="P96" s="158"/>
+      <c r="Q96" s="179"/>
+      <c r="R96" s="177"/>
       <c r="S96" s="82"/>
       <c r="T96" s="83"/>
       <c r="U96" s="83"/>
@@ -18150,60 +18603,708 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="781">
-    <mergeCell ref="DM2:DO2"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="CX2:CZ2"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="DA2:DC2"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DD2:DF2"/>
-    <mergeCell ref="DD3:DF3"/>
-    <mergeCell ref="DG2:DI2"/>
-    <mergeCell ref="DG3:DI3"/>
-    <mergeCell ref="DJ2:DL2"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="CI2:CK2"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL2:CN2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO2:CQ2"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR2:CT2"/>
-    <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="CU2:CW2"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="R93:R94"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="EL8:EL10"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="K49:K50"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="E77:E78"/>
@@ -18228,1143 +19329,594 @@
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="EL8:EL10"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="Q93:Q94"/>
-    <mergeCell ref="R93:R94"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
     <mergeCell ref="E95:E96"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="CI2:CK2"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL2:CN2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO2:CQ2"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR2:CT2"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="CU2:CW2"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DM2:DO2"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="CX2:CZ2"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="DA2:DC2"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DD2:DF2"/>
+    <mergeCell ref="DD3:DF3"/>
+    <mergeCell ref="DG2:DI2"/>
+    <mergeCell ref="DG3:DI3"/>
+    <mergeCell ref="DJ2:DL2"/>
+    <mergeCell ref="DJ3:DL3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
-    <cfRule type="expression" dxfId="117" priority="1979" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="2006" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="1980" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="2007" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:EK10">
-    <cfRule type="expression" dxfId="115" priority="1987" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="2014" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="1988" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="2015" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="1989" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="2016" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:EK96">
-    <cfRule type="expression" dxfId="112" priority="3669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="3696" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="3670" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="3697" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="3671" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="3698" stopIfTrue="1">
       <formula>IF(AND($D11="",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:K11 B11:F11 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 J47:K47 B47:E47 J49:K49 B49:E49 J51:K51 J53:K53 J55:K55 J57:K57 J59:K59 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 J61:K61 B61:F61 J63:K63 J65:K65 J67:K67 J69:K69 J71:K71 B63:F63 B65:F65 B67:F67 B69:F69 B71:F71 J73:K73 B73:F73 J75:K75 J77:K77 J79:K79 J81:K81 J83:K83 B75:F75 B77:F77 B79:F79 B81:F81 B83:F83 J85:K85 B85:F85 J87:K87 J89:K89 J91:K91 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:F93 B95:F95 G47:I96 G41:I44 G21:H24 G25:G40 B13:F13 B35:F35 G11:I20 K17:K18 J15:J18 G45:G46 L11:O96 Q11:R96">
-    <cfRule type="expression" dxfId="109" priority="5122" stopIfTrue="1">
+  <conditionalFormatting sqref="J11:K11 B11:F11 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 J47:K47 B47:E47 J49:K49 B49:E49 J51:K51 J53:K53 J55:K55 J57:K57 J59:K59 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 J61:K61 B61:F61 J63:K63 J65:K65 J67:K67 J69:K69 J71:K71 B63:F63 B65:F65 B67:F67 B69:F69 B71:F71 J73:K73 B73:F73 J75:K75 J77:K77 J79:K79 J81:K81 J83:K83 B75:F75 B77:F77 B79:F79 B81:F81 B83:F83 J85:K85 B85:F85 J87:K87 J89:K89 J91:K91 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:F93 B95:F95 G47:I96 G41:I44 G25:G40 B13:F13 B35:F35 K17:K18 J15:J18 G45:G46 L11:O96 Q11:R96 G11:H24 I11:I20">
+    <cfRule type="expression" dxfId="184" priority="5149" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="5123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="5150" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="5151" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:DM96">
-    <cfRule type="expression" dxfId="106" priority="6202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="6229" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(CJ$9)=7,WEEKDAY(CJ$9)=1,IF(ISNA(MATCH(CJ$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="6203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="6230" stopIfTrue="1">
       <formula>IF(AND($D11="",$S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 P21 P23 P25 P27 P31 P33 P43 P47 P49 P51 P53 P55 P57 P59 P61 P63 P65 P67 P69 P71 P73 P75 P77 P79 P81 P83 P85 P87 P89 P91 P93 P95">
-    <cfRule type="expression" dxfId="104" priority="371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="398" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="399" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="400" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37">
-    <cfRule type="expression" dxfId="101" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="292" stopIfTrue="1">
       <formula>IF(AND($D37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="293" stopIfTrue="1">
       <formula>IF(AND($D37&lt;&gt;"",$K37="",$I37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="294" stopIfTrue="1">
       <formula>IF(OR(AND($D37&lt;&gt;"",$J37&lt;&gt;"",$Q37&lt;100),TODAY()&gt;=$H37),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="98" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="289" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="290" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="291" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="expression" dxfId="95" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="277" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="278" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$K15="",$I15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="279" stopIfTrue="1">
       <formula>IF(OR(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$Q15&lt;100),TODAY()&gt;=$H15),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="expression" dxfId="92" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="274" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="275" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$K19="",$I19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="276" stopIfTrue="1">
       <formula>IF(OR(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$Q19&lt;100),TODAY()&gt;=$H19),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="89" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="271" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="272" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="273" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="expression" dxfId="86" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="268" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="269" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$K35="",$I35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="270" stopIfTrue="1">
       <formula>IF(OR(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$Q35&lt;100),TODAY()&gt;=$H35),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="expression" dxfId="83" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="265" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="266" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="267" stopIfTrue="1">
       <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41">
-    <cfRule type="expression" dxfId="80" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="262" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="263" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="264" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="expression" dxfId="77" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="250" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="251" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$K17="",$I17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="252" stopIfTrue="1">
       <formula>IF(OR(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$Q17&lt;100),TODAY()&gt;=$H17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45">
-    <cfRule type="expression" dxfId="74" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="241" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="242" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="243" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="71" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="223" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="224" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$K47="",$I47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="225" stopIfTrue="1">
       <formula>IF(OR(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$Q47&lt;100),TODAY()&gt;=$H47),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="68" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="220" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="221" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="222" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:J42">
-    <cfRule type="expression" dxfId="65" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="202" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="203" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="204" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:K42">
-    <cfRule type="expression" dxfId="62" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="199" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="200" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="201" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:J44">
-    <cfRule type="expression" dxfId="59" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="196" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="197" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="198" stopIfTrue="1">
       <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:K44">
-    <cfRule type="expression" dxfId="56" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="193" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="194" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="195" stopIfTrue="1">
       <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="expression" dxfId="53" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="190" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="191" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="192" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I46">
-    <cfRule type="expression" dxfId="50" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="187" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="188" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="189" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J46">
-    <cfRule type="expression" dxfId="47" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="184" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="185" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="186" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:K46">
-    <cfRule type="expression" dxfId="44" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="181" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="182" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="183" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="41" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="94" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="95" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="96" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="38" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="79" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="80" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="81" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="expression" dxfId="35" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="70" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="71" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$K15="",$I15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="72" stopIfTrue="1">
       <formula>IF(OR(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$Q15&lt;100),TODAY()&gt;=$H15),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J20">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="58" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="59" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$K19="",$I19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="60" stopIfTrue="1">
       <formula>IF(OR(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$Q19&lt;100),TODAY()&gt;=$H19),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K20">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="55" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="56" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$K19="",$I19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="57" stopIfTrue="1">
       <formula>IF(OR(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$Q19&lt;100),TODAY()&gt;=$H19),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:K34">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="52" stopIfTrue="1">
       <formula>IF(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="53" stopIfTrue="1">
       <formula>IF(AND($D25&lt;&gt;"",$K25="",$I25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="54" stopIfTrue="1">
       <formula>IF(OR(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$Q25&lt;100),TODAY()&gt;=$H25),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K24">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="49" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="50" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="51" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H36">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="95" priority="46" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="47" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$K35="",$I35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="48" stopIfTrue="1">
       <formula>IF(OR(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$Q35&lt;100),TODAY()&gt;=$H35),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H38">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="43" stopIfTrue="1">
       <formula>IF(AND($D37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="44" stopIfTrue="1">
       <formula>IF(AND($D37&lt;&gt;"",$K37="",$I37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="45" stopIfTrue="1">
       <formula>IF(OR(AND($D37&lt;&gt;"",$J37&lt;&gt;"",$Q37&lt;100),TODAY()&gt;=$H37),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:K38">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="40" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="41" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$K35="",$I35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="42" stopIfTrue="1">
       <formula>IF(OR(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$Q35&lt;100),TODAY()&gt;=$H35),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H40">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="37" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="38" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="39" stopIfTrue="1">
       <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I40">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="34" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="35" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="36" stopIfTrue="1">
       <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J40">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="31" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="32" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="33" stopIfTrue="1">
       <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K40">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="28" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="29" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="30" stopIfTrue="1">
       <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21">
+    <cfRule type="expression" dxfId="74" priority="25" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="26" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="27" stopIfTrue="1">
+      <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45">
+    <cfRule type="expression" dxfId="68" priority="22" stopIfTrue="1">
+      <formula>IF(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="23" stopIfTrue="1">
+      <formula>IF(AND($D23&lt;&gt;"",$K23="",$I23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="24" stopIfTrue="1">
+      <formula>IF(OR(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$Q23&lt;100),TODAY()&gt;=$H23),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H26">
+    <cfRule type="expression" dxfId="56" priority="19" stopIfTrue="1">
+      <formula>IF(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="20" stopIfTrue="1">
+      <formula>IF(AND($D25&lt;&gt;"",$K25="",$I25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="21" stopIfTrue="1">
+      <formula>IF(OR(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$Q25&lt;100),TODAY()&gt;=$H25),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I22">
+    <cfRule type="expression" dxfId="47" priority="16" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="17" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="18" stopIfTrue="1">
+      <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I24">
+    <cfRule type="expression" dxfId="41" priority="13" stopIfTrue="1">
+      <formula>IF(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="14" stopIfTrue="1">
+      <formula>IF(AND($D23&lt;&gt;"",$K23="",$I23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$Q23&lt;100),TODAY()&gt;=$H23),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I26">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+      <formula>IF(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
+      <formula>IF(AND($D25&lt;&gt;"",$K25="",$I25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
+      <formula>IF(OR(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$Q25&lt;100),TODAY()&gt;=$H25),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H28">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+      <formula>IF(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
+      <formula>IF(AND($D27&lt;&gt;"",$K27="",$I27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+      <formula>IF(OR(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$Q27&lt;100),TODAY()&gt;=$H27),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:I28">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+      <formula>IF(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+      <formula>IF(AND($D27&lt;&gt;"",$K27="",$I27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$Q27&lt;100),TODAY()&gt;=$H27),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I36">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+      <formula>IF(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+      <formula>IF(AND($D35&lt;&gt;"",$K35="",$I35&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+      <formula>IF(OR(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$Q35&lt;100),TODAY()&gt;=$H35),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -19403,11 +19955,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="222"/>
-      <c r="D3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="224"/>
     </row>
     <row r="4" spans="2:23" ht="16.5" customHeight="1">
       <c r="B4" s="70" t="s">
